--- a/data/Elasticity_Data.xlsx
+++ b/data/Elasticity_Data.xlsx
@@ -1325,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC523"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A433" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G444" sqref="G444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1336,7 @@
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -31691,7 +31691,7 @@
         <v>262</v>
       </c>
       <c r="G443">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="H443" t="s">
         <v>274</v>

--- a/data/Elasticity_Data.xlsx
+++ b/data/Elasticity_Data.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$AC$506</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$AC$523</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8484" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8488" uniqueCount="305">
   <si>
     <t>Country</t>
   </si>
@@ -1323,10 +1323,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC523"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AC524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G444" sqref="G444"/>
+    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G524" sqref="G524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1447,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>351</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>351</v>
       </c>
@@ -1604,7 +1605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>351</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>351</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>351</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>351</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>351</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>351</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>351</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>351</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>351</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>351</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>351</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>351</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>351</v>
       </c>
@@ -2631,7 +2632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>351</v>
       </c>
@@ -2710,7 +2711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>351</v>
       </c>
@@ -2789,7 +2790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>351</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>351</v>
       </c>
@@ -2947,7 +2948,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>351</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>351</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>351</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>351</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>351</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>351</v>
       </c>
@@ -3421,7 +3422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>351</v>
       </c>
@@ -3500,7 +3501,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>351</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>351</v>
       </c>
@@ -3658,7 +3659,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>351</v>
       </c>
@@ -3737,7 +3738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>351</v>
       </c>
@@ -3816,7 +3817,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>351</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>351</v>
       </c>
@@ -3974,7 +3975,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>351</v>
       </c>
@@ -4053,7 +4054,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>351</v>
       </c>
@@ -4132,7 +4133,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>351</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>351</v>
       </c>
@@ -4290,7 +4291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>351</v>
       </c>
@@ -4369,7 +4370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>351</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>351</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>351</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>351</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>351</v>
       </c>
@@ -4764,7 +4765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>351</v>
       </c>
@@ -4843,7 +4844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>351</v>
       </c>
@@ -4922,7 +4923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>351</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>351</v>
       </c>
@@ -5080,7 +5081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>351</v>
       </c>
@@ -5159,7 +5160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>351</v>
       </c>
@@ -5238,7 +5239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>351</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>351</v>
       </c>
@@ -5396,7 +5397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>351</v>
       </c>
@@ -5475,7 +5476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>351</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>351</v>
       </c>
@@ -5633,7 +5634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>351</v>
       </c>
@@ -5712,7 +5713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>351</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>351</v>
       </c>
@@ -5870,7 +5871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>351</v>
       </c>
@@ -5949,7 +5950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>351</v>
       </c>
@@ -6028,7 +6029,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>351</v>
       </c>
@@ -6107,7 +6108,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>351</v>
       </c>
@@ -6186,7 +6187,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>351</v>
       </c>
@@ -6265,7 +6266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>351</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>351</v>
       </c>
@@ -6423,7 +6424,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>351</v>
       </c>
@@ -6502,7 +6503,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>351</v>
       </c>
@@ -6581,7 +6582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>351</v>
       </c>
@@ -6660,7 +6661,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>351</v>
       </c>
@@ -6739,7 +6740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>351</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>351</v>
       </c>
@@ -6897,7 +6898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>351</v>
       </c>
@@ -6976,7 +6977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>351</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>351</v>
       </c>
@@ -7134,7 +7135,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>351</v>
       </c>
@@ -7213,7 +7214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>351</v>
       </c>
@@ -7292,7 +7293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>351</v>
       </c>
@@ -7371,7 +7372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>351</v>
       </c>
@@ -7450,7 +7451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>351</v>
       </c>
@@ -7529,7 +7530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>351</v>
       </c>
@@ -7608,7 +7609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>351</v>
       </c>
@@ -7687,7 +7688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>351</v>
       </c>
@@ -7766,7 +7767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>351</v>
       </c>
@@ -7845,7 +7846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>351</v>
       </c>
@@ -7924,7 +7925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>351</v>
       </c>
@@ -8003,7 +8004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>351</v>
       </c>
@@ -8082,7 +8083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>351</v>
       </c>
@@ -8161,7 +8162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>351</v>
       </c>
@@ -8240,7 +8241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>351</v>
       </c>
@@ -8319,7 +8320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>351</v>
       </c>
@@ -8398,7 +8399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>351</v>
       </c>
@@ -8477,7 +8478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>351</v>
       </c>
@@ -8556,7 +8557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>351</v>
       </c>
@@ -8635,7 +8636,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>351</v>
       </c>
@@ -8714,7 +8715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>351</v>
       </c>
@@ -8793,7 +8794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>351</v>
       </c>
@@ -8872,7 +8873,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>351</v>
       </c>
@@ -8951,7 +8952,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>351</v>
       </c>
@@ -9030,7 +9031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>351</v>
       </c>
@@ -9109,7 +9110,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>351</v>
       </c>
@@ -9188,7 +9189,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>351</v>
       </c>
@@ -9267,7 +9268,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>351</v>
       </c>
@@ -9346,7 +9347,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>351</v>
       </c>
@@ -9425,7 +9426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>351</v>
       </c>
@@ -9504,7 +9505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>351</v>
       </c>
@@ -9583,7 +9584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>351</v>
       </c>
@@ -9662,7 +9663,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>351</v>
       </c>
@@ -9741,7 +9742,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>351</v>
       </c>
@@ -9820,7 +9821,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>351</v>
       </c>
@@ -9899,7 +9900,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>351</v>
       </c>
@@ -9978,7 +9979,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>351</v>
       </c>
@@ -10057,7 +10058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>351</v>
       </c>
@@ -10136,7 +10137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>351</v>
       </c>
@@ -10215,7 +10216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>351</v>
       </c>
@@ -10294,7 +10295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>351</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>351</v>
       </c>
@@ -10452,7 +10453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>351</v>
       </c>
@@ -10531,7 +10532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>351</v>
       </c>
@@ -10610,7 +10611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>351</v>
       </c>
@@ -10689,7 +10690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>351</v>
       </c>
@@ -10768,7 +10769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>351</v>
       </c>
@@ -10847,7 +10848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>351</v>
       </c>
@@ -10926,7 +10927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>351</v>
       </c>
@@ -11005,7 +11006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>351</v>
       </c>
@@ -11084,7 +11085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>351</v>
       </c>
@@ -11163,7 +11164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>351</v>
       </c>
@@ -11242,7 +11243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>351</v>
       </c>
@@ -11321,7 +11322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>351</v>
       </c>
@@ -11400,7 +11401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>351</v>
       </c>
@@ -11479,7 +11480,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>351</v>
       </c>
@@ -11558,7 +11559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>351</v>
       </c>
@@ -11637,7 +11638,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>351</v>
       </c>
@@ -11716,7 +11717,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>351</v>
       </c>
@@ -11795,7 +11796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>351</v>
       </c>
@@ -11874,7 +11875,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>351</v>
       </c>
@@ -11953,7 +11954,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>351</v>
       </c>
@@ -12032,7 +12033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>351</v>
       </c>
@@ -12111,7 +12112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>351</v>
       </c>
@@ -12190,7 +12191,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>351</v>
       </c>
@@ -12269,7 +12270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>351</v>
       </c>
@@ -12348,7 +12349,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>351</v>
       </c>
@@ -12427,7 +12428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>351</v>
       </c>
@@ -12506,7 +12507,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>351</v>
       </c>
@@ -12585,7 +12586,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>351</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>351</v>
       </c>
@@ -12743,7 +12744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>351</v>
       </c>
@@ -12822,7 +12823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>351</v>
       </c>
@@ -12901,7 +12902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>351</v>
       </c>
@@ -12980,7 +12981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>351</v>
       </c>
@@ -13059,7 +13060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>351</v>
       </c>
@@ -13138,7 +13139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>351</v>
       </c>
@@ -13217,7 +13218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>351</v>
       </c>
@@ -13296,7 +13297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>351</v>
       </c>
@@ -13375,7 +13376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>351</v>
       </c>
@@ -13454,7 +13455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>351</v>
       </c>
@@ -13533,7 +13534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>351</v>
       </c>
@@ -13612,7 +13613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>351</v>
       </c>
@@ -13691,7 +13692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>351</v>
       </c>
@@ -13770,7 +13771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>351</v>
       </c>
@@ -13849,7 +13850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>351</v>
       </c>
@@ -13928,7 +13929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>351</v>
       </c>
@@ -14007,7 +14008,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>351</v>
       </c>
@@ -14086,7 +14087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>351</v>
       </c>
@@ -14165,7 +14166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>351</v>
       </c>
@@ -14244,7 +14245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>351</v>
       </c>
@@ -14323,7 +14324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>351</v>
       </c>
@@ -14402,7 +14403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>351</v>
       </c>
@@ -14481,7 +14482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>351</v>
       </c>
@@ -14560,7 +14561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>351</v>
       </c>
@@ -14639,7 +14640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>351</v>
       </c>
@@ -14718,7 +14719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>351</v>
       </c>
@@ -14797,7 +14798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>351</v>
       </c>
@@ -14876,7 +14877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>351</v>
       </c>
@@ -14955,7 +14956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>351</v>
       </c>
@@ -15034,7 +15035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>351</v>
       </c>
@@ -15113,7 +15114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>351</v>
       </c>
@@ -15192,7 +15193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>351</v>
       </c>
@@ -15271,7 +15272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>351</v>
       </c>
@@ -15350,7 +15351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>351</v>
       </c>
@@ -15429,7 +15430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>351</v>
       </c>
@@ -15508,7 +15509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>351</v>
       </c>
@@ -15587,7 +15588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>351</v>
       </c>
@@ -15666,7 +15667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>351</v>
       </c>
@@ -15745,7 +15746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>351</v>
       </c>
@@ -15824,7 +15825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>351</v>
       </c>
@@ -15903,7 +15904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>351</v>
       </c>
@@ -15982,7 +15983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>351</v>
       </c>
@@ -16061,7 +16062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>351</v>
       </c>
@@ -16140,7 +16141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>351</v>
       </c>
@@ -16219,7 +16220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>351</v>
       </c>
@@ -16298,7 +16299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>351</v>
       </c>
@@ -16377,7 +16378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>351</v>
       </c>
@@ -16456,7 +16457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>351</v>
       </c>
@@ -16535,7 +16536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>351</v>
       </c>
@@ -16614,7 +16615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>351</v>
       </c>
@@ -16693,7 +16694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>351</v>
       </c>
@@ -16772,7 +16773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>351</v>
       </c>
@@ -16851,7 +16852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>351</v>
       </c>
@@ -16930,7 +16931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>231</v>
       </c>
@@ -17009,7 +17010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>231</v>
       </c>
@@ -17088,7 +17089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>231</v>
       </c>
@@ -17167,7 +17168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>231</v>
       </c>
@@ -17246,7 +17247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>231</v>
       </c>
@@ -17325,7 +17326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>231</v>
       </c>
@@ -17404,7 +17405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>231</v>
       </c>
@@ -17483,7 +17484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>231</v>
       </c>
@@ -17562,7 +17563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>231</v>
       </c>
@@ -17641,7 +17642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>231</v>
       </c>
@@ -17720,7 +17721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>231</v>
       </c>
@@ -17799,7 +17800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>231</v>
       </c>
@@ -18352,7 +18353,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>194</v>
       </c>
@@ -18431,7 +18432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>101</v>
       </c>
@@ -18510,7 +18511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>101</v>
       </c>
@@ -18589,7 +18590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>101</v>
       </c>
@@ -18668,7 +18669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>101</v>
       </c>
@@ -18747,7 +18748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>101</v>
       </c>
@@ -18826,7 +18827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>101</v>
       </c>
@@ -18905,7 +18906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>101</v>
       </c>
@@ -18984,7 +18985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>101</v>
       </c>
@@ -19063,7 +19064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>101</v>
       </c>
@@ -19142,7 +19143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>101</v>
       </c>
@@ -19221,7 +19222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>101</v>
       </c>
@@ -20169,7 +20170,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>351</v>
       </c>
@@ -20248,7 +20249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>351</v>
       </c>
@@ -20327,7 +20328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>351</v>
       </c>
@@ -20406,7 +20407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>351</v>
       </c>
@@ -20485,7 +20486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>351</v>
       </c>
@@ -20564,7 +20565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>351</v>
       </c>
@@ -20643,7 +20644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>351</v>
       </c>
@@ -20722,7 +20723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>351</v>
       </c>
@@ -20801,7 +20802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>351</v>
       </c>
@@ -20880,7 +20881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>351</v>
       </c>
@@ -20959,7 +20960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>351</v>
       </c>
@@ -21038,7 +21039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>351</v>
       </c>
@@ -21117,7 +21118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>351</v>
       </c>
@@ -21196,7 +21197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>351</v>
       </c>
@@ -21275,7 +21276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>351</v>
       </c>
@@ -21354,7 +21355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>351</v>
       </c>
@@ -21433,7 +21434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>351</v>
       </c>
@@ -21512,7 +21513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>351</v>
       </c>
@@ -21591,7 +21592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>351</v>
       </c>
@@ -21670,7 +21671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>351</v>
       </c>
@@ -21749,7 +21750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>351</v>
       </c>
@@ -21828,7 +21829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>351</v>
       </c>
@@ -21907,7 +21908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>351</v>
       </c>
@@ -21986,7 +21987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>351</v>
       </c>
@@ -22065,7 +22066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>351</v>
       </c>
@@ -22144,7 +22145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>231</v>
       </c>
@@ -22223,7 +22224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>231</v>
       </c>
@@ -22302,7 +22303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>231</v>
       </c>
@@ -22381,7 +22382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>231</v>
       </c>
@@ -22460,7 +22461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>231</v>
       </c>
@@ -22539,7 +22540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>231</v>
       </c>
@@ -22618,7 +22619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>231</v>
       </c>
@@ -22697,7 +22698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>231</v>
       </c>
@@ -22776,7 +22777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>231</v>
       </c>
@@ -22855,7 +22856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>231</v>
       </c>
@@ -22934,7 +22935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>231</v>
       </c>
@@ -23013,7 +23014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>231</v>
       </c>
@@ -23092,7 +23093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>231</v>
       </c>
@@ -23171,7 +23172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>231</v>
       </c>
@@ -23250,7 +23251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>231</v>
       </c>
@@ -23329,7 +23330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>231</v>
       </c>
@@ -23408,7 +23409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>231</v>
       </c>
@@ -23487,7 +23488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>231</v>
       </c>
@@ -23566,7 +23567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>231</v>
       </c>
@@ -23645,7 +23646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>231</v>
       </c>
@@ -23724,7 +23725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>231</v>
       </c>
@@ -23803,7 +23804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>231</v>
       </c>
@@ -23882,7 +23883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>231</v>
       </c>
@@ -23961,7 +23962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>231</v>
       </c>
@@ -24040,7 +24041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>231</v>
       </c>
@@ -24119,7 +24120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>231</v>
       </c>
@@ -24198,7 +24199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>231</v>
       </c>
@@ -24277,7 +24278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>231</v>
       </c>
@@ -24356,7 +24357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>231</v>
       </c>
@@ -24435,7 +24436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>231</v>
       </c>
@@ -24514,7 +24515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>231</v>
       </c>
@@ -24593,7 +24594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>231</v>
       </c>
@@ -24672,7 +24673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>231</v>
       </c>
@@ -24751,7 +24752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>231</v>
       </c>
@@ -24830,7 +24831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>231</v>
       </c>
@@ -24909,7 +24910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>231</v>
       </c>
@@ -24988,7 +24989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>231</v>
       </c>
@@ -25067,7 +25068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>231</v>
       </c>
@@ -25146,7 +25147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>231</v>
       </c>
@@ -25225,7 +25226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>231</v>
       </c>
@@ -25304,7 +25305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>231</v>
       </c>
@@ -25383,7 +25384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>231</v>
       </c>
@@ -25462,7 +25463,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="306" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>231</v>
       </c>
@@ -25541,7 +25542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>231</v>
       </c>
@@ -25620,7 +25621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>231</v>
       </c>
@@ -25699,7 +25700,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>231</v>
       </c>
@@ -25778,7 +25779,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>231</v>
       </c>
@@ -25857,7 +25858,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>231</v>
       </c>
@@ -25936,7 +25937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>231</v>
       </c>
@@ -26015,7 +26016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>231</v>
       </c>
@@ -26094,7 +26095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="314" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>231</v>
       </c>
@@ -26173,7 +26174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="315" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>231</v>
       </c>
@@ -26252,7 +26253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="316" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>231</v>
       </c>
@@ -26331,7 +26332,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="317" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>231</v>
       </c>
@@ -26410,7 +26411,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="318" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>231</v>
       </c>
@@ -26489,7 +26490,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="319" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>231</v>
       </c>
@@ -26568,7 +26569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="320" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>231</v>
       </c>
@@ -26647,7 +26648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="321" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>231</v>
       </c>
@@ -26726,7 +26727,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="322" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>231</v>
       </c>
@@ -26805,7 +26806,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="323" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>231</v>
       </c>
@@ -26884,7 +26885,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="324" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>231</v>
       </c>
@@ -26963,7 +26964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="325" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>231</v>
       </c>
@@ -27042,7 +27043,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="326" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>231</v>
       </c>
@@ -27121,7 +27122,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="327" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>231</v>
       </c>
@@ -27200,7 +27201,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="328" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>231</v>
       </c>
@@ -27279,7 +27280,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="329" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>231</v>
       </c>
@@ -27358,7 +27359,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="330" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>231</v>
       </c>
@@ -27437,7 +27438,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="331" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>231</v>
       </c>
@@ -27516,7 +27517,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="332" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>231</v>
       </c>
@@ -27595,7 +27596,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="333" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>231</v>
       </c>
@@ -27674,7 +27675,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="334" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>231</v>
       </c>
@@ -27753,7 +27754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="335" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>231</v>
       </c>
@@ -27832,7 +27833,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="336" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>231</v>
       </c>
@@ -27911,7 +27912,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="337" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>231</v>
       </c>
@@ -27990,7 +27991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>231</v>
       </c>
@@ -28069,7 +28070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>231</v>
       </c>
@@ -28148,7 +28149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>231</v>
       </c>
@@ -28227,7 +28228,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>231</v>
       </c>
@@ -28306,7 +28307,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>231</v>
       </c>
@@ -28385,7 +28386,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>231</v>
       </c>
@@ -28464,7 +28465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="344" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>231</v>
       </c>
@@ -28543,7 +28544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>231</v>
       </c>
@@ -28622,7 +28623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>351</v>
       </c>
@@ -28701,7 +28702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>351</v>
       </c>
@@ -28780,7 +28781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>351</v>
       </c>
@@ -28859,7 +28860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>351</v>
       </c>
@@ -28938,7 +28939,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>351</v>
       </c>
@@ -29017,7 +29018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="351" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>351</v>
       </c>
@@ -29096,7 +29097,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="352" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>351</v>
       </c>
@@ -29175,7 +29176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>351</v>
       </c>
@@ -29254,7 +29255,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>351</v>
       </c>
@@ -29333,7 +29334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="355" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>351</v>
       </c>
@@ -31518,7 +31519,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="437" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>9</v>
       </c>
@@ -31544,7 +31545,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="438" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>9</v>
       </c>
@@ -31570,7 +31571,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="439" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>9</v>
       </c>
@@ -31596,7 +31597,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="440" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>21</v>
       </c>
@@ -31622,7 +31623,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="441" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
         <v>21</v>
       </c>
@@ -31648,7 +31649,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="442" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>21</v>
       </c>
@@ -31674,7 +31675,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="443" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>33</v>
       </c>
@@ -31700,7 +31701,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="444" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>33</v>
       </c>
@@ -31726,7 +31727,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="445" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>33</v>
       </c>
@@ -31752,7 +31753,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="446" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>351</v>
       </c>
@@ -31778,7 +31779,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="447" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>351</v>
       </c>
@@ -31804,7 +31805,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="448" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
         <v>351</v>
       </c>
@@ -31830,7 +31831,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="449" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>283</v>
       </c>
@@ -31856,7 +31857,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="450" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>283</v>
       </c>
@@ -31882,7 +31883,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="451" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>283</v>
       </c>
@@ -31908,7 +31909,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="452" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>283</v>
       </c>
@@ -31934,7 +31935,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="453" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>283</v>
       </c>
@@ -31960,7 +31961,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="454" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>283</v>
       </c>
@@ -31986,7 +31987,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="455" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>283</v>
       </c>
@@ -32012,7 +32013,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="456" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>283</v>
       </c>
@@ -32038,7 +32039,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="457" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>283</v>
       </c>
@@ -32064,7 +32065,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="458" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>283</v>
       </c>
@@ -32090,7 +32091,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="459" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>100</v>
       </c>
@@ -32116,7 +32117,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="460" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>100</v>
       </c>
@@ -32142,7 +32143,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="461" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>100</v>
       </c>
@@ -32168,7 +32169,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="462" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>110</v>
       </c>
@@ -32194,7 +32195,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="463" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>110</v>
       </c>
@@ -32220,7 +32221,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="464" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>110</v>
       </c>
@@ -32246,7 +32247,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="465" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
         <v>117</v>
       </c>
@@ -32272,7 +32273,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="466" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>117</v>
       </c>
@@ -32298,7 +32299,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="467" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
         <v>117</v>
       </c>
@@ -32324,7 +32325,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="468" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>283</v>
       </c>
@@ -32350,7 +32351,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="469" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>283</v>
       </c>
@@ -32376,7 +32377,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="470" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>283</v>
       </c>
@@ -32402,7 +32403,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="471" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>283</v>
       </c>
@@ -32425,7 +32426,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="472" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>9</v>
       </c>
@@ -32448,7 +32449,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="473" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
         <v>10</v>
       </c>
@@ -32471,7 +32472,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="474" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>16</v>
       </c>
@@ -32494,7 +32495,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="475" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
         <v>21</v>
       </c>
@@ -32517,7 +32518,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="476" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
         <v>33</v>
       </c>
@@ -32540,7 +32541,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="477" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
         <v>351</v>
       </c>
@@ -32563,7 +32564,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="478" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
         <v>351</v>
       </c>
@@ -32589,7 +32590,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="479" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
         <v>59</v>
       </c>
@@ -32612,7 +32613,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="480" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>283</v>
       </c>
@@ -32635,7 +32636,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="481" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
         <v>100</v>
       </c>
@@ -32658,7 +32659,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="482" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
         <v>101</v>
       </c>
@@ -32681,7 +32682,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="483" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3">
         <v>102</v>
       </c>
@@ -32704,7 +32705,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="484" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3">
         <v>103</v>
       </c>
@@ -32727,7 +32728,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="485" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>283</v>
       </c>
@@ -32750,7 +32751,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="486" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
         <v>110</v>
       </c>
@@ -32773,7 +32774,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="487" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3">
         <v>131</v>
       </c>
@@ -32796,7 +32797,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="488" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
         <v>138</v>
       </c>
@@ -32819,7 +32820,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="489" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3">
         <v>28</v>
       </c>
@@ -32842,7 +32843,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="490" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3">
         <v>159</v>
       </c>
@@ -32865,7 +32866,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="491" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3">
         <v>165</v>
       </c>
@@ -32888,7 +32889,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="492" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
         <v>171</v>
       </c>
@@ -32911,7 +32912,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="493" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
         <v>194</v>
       </c>
@@ -32934,7 +32935,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="494" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3">
         <v>202</v>
       </c>
@@ -32957,7 +32958,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="495" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3">
         <v>117</v>
       </c>
@@ -32980,7 +32981,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="496" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>283</v>
       </c>
@@ -33003,7 +33004,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="497" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3">
         <v>216</v>
       </c>
@@ -33026,7 +33027,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="498" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3">
         <v>223</v>
       </c>
@@ -33049,7 +33050,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="499" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3">
         <v>231</v>
       </c>
@@ -33072,7 +33073,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="500" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3">
         <v>234</v>
       </c>
@@ -33095,7 +33096,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="501" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3">
         <v>237</v>
       </c>
@@ -33118,7 +33119,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="502" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3">
         <v>9</v>
       </c>
@@ -33144,7 +33145,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="503" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3">
         <v>10</v>
       </c>
@@ -33170,7 +33171,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="504" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3">
         <v>21</v>
       </c>
@@ -33196,7 +33197,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="505" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3">
         <v>351</v>
       </c>
@@ -33222,7 +33223,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="506" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3">
         <v>44</v>
       </c>
@@ -33248,7 +33249,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="507" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B507" t="s">
         <v>257</v>
       </c>
@@ -33271,7 +33272,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="508" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B508" t="s">
         <v>226</v>
       </c>
@@ -33294,7 +33295,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="509" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B509" t="s">
         <v>227</v>
       </c>
@@ -33317,7 +33318,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="510" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B510" t="s">
         <v>258</v>
       </c>
@@ -33340,7 +33341,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="511" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B511" t="s">
         <v>230</v>
       </c>
@@ -33363,7 +33364,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="512" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B512" t="s">
         <v>139</v>
       </c>
@@ -33386,7 +33387,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="513" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B513" t="s">
         <v>246</v>
       </c>
@@ -33409,7 +33410,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="514" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B514" t="s">
         <v>232</v>
       </c>
@@ -33432,7 +33433,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="515" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B515" t="s">
         <v>234</v>
       </c>
@@ -33455,7 +33456,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="516" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B516" t="s">
         <v>235</v>
       </c>
@@ -33478,7 +33479,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="517" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B517" t="s">
         <v>259</v>
       </c>
@@ -33501,7 +33502,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="518" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B518" t="s">
         <v>237</v>
       </c>
@@ -33524,7 +33525,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="519" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B519" t="s">
         <v>260</v>
       </c>
@@ -33547,7 +33548,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="520" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B520" t="s">
         <v>251</v>
       </c>
@@ -33570,7 +33571,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="521" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B521" t="s">
         <v>238</v>
       </c>
@@ -33593,7 +33594,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="522" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B522" t="s">
         <v>241</v>
       </c>
@@ -33616,7 +33617,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="523" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B523" t="s">
         <v>261</v>
       </c>
@@ -33639,8 +33640,34 @@
         <v>255</v>
       </c>
     </row>
+    <row r="524" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>231</v>
+      </c>
+      <c r="B524" t="s">
+        <v>104</v>
+      </c>
+      <c r="C524" t="s">
+        <v>218</v>
+      </c>
+      <c r="E524" t="s">
+        <v>269</v>
+      </c>
+      <c r="F524" t="s">
+        <v>266</v>
+      </c>
+      <c r="G524">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:AC506"/>
+  <autoFilter ref="B1:AC523">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Corn"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/Elasticity_Data.xlsx
+++ b/data/Elasticity_Data.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$AC$523</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$AC$526</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8488" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8501" uniqueCount="306">
   <si>
     <t>Country</t>
   </si>
@@ -938,6 +938,9 @@
   <si>
     <t>Demand_Income</t>
   </si>
+  <si>
+    <t>Unrestricted Schlenker</t>
+  </si>
 </sst>
 </file>
 
@@ -1323,11 +1326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AC524"/>
+  <dimension ref="A1:AC527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G524" sqref="G524"/>
+    <sheetView tabSelected="1" topLeftCell="A490" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H527" activeCellId="1" sqref="H526 H527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,7 +1449,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>351</v>
       </c>
@@ -1526,7 +1528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>351</v>
       </c>
@@ -1605,7 +1607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>351</v>
       </c>
@@ -1684,7 +1686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>351</v>
       </c>
@@ -1763,7 +1765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>351</v>
       </c>
@@ -1842,7 +1844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>351</v>
       </c>
@@ -1921,7 +1923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>351</v>
       </c>
@@ -2000,7 +2002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>351</v>
       </c>
@@ -2079,7 +2081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>351</v>
       </c>
@@ -2158,7 +2160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>351</v>
       </c>
@@ -2237,7 +2239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>351</v>
       </c>
@@ -2316,7 +2318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>351</v>
       </c>
@@ -2395,7 +2397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>351</v>
       </c>
@@ -2474,7 +2476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>351</v>
       </c>
@@ -2553,7 +2555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>351</v>
       </c>
@@ -2632,7 +2634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>351</v>
       </c>
@@ -2711,7 +2713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>351</v>
       </c>
@@ -2790,7 +2792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>351</v>
       </c>
@@ -2869,7 +2871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>351</v>
       </c>
@@ -2948,7 +2950,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>351</v>
       </c>
@@ -3027,7 +3029,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>351</v>
       </c>
@@ -3106,7 +3108,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>351</v>
       </c>
@@ -3185,7 +3187,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>351</v>
       </c>
@@ -3264,7 +3266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>351</v>
       </c>
@@ -3343,7 +3345,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>351</v>
       </c>
@@ -3422,7 +3424,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>351</v>
       </c>
@@ -3501,7 +3503,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>351</v>
       </c>
@@ -3580,7 +3582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>351</v>
       </c>
@@ -3659,7 +3661,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>351</v>
       </c>
@@ -3738,7 +3740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>351</v>
       </c>
@@ -3817,7 +3819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>351</v>
       </c>
@@ -3896,7 +3898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>351</v>
       </c>
@@ -3975,7 +3977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>351</v>
       </c>
@@ -4054,7 +4056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>351</v>
       </c>
@@ -4133,7 +4135,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>351</v>
       </c>
@@ -4212,7 +4214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>351</v>
       </c>
@@ -4291,7 +4293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>351</v>
       </c>
@@ -4370,7 +4372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>351</v>
       </c>
@@ -4449,7 +4451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>351</v>
       </c>
@@ -4528,7 +4530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>351</v>
       </c>
@@ -4607,7 +4609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>351</v>
       </c>
@@ -4686,7 +4688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>351</v>
       </c>
@@ -4765,7 +4767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>351</v>
       </c>
@@ -4844,7 +4846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>351</v>
       </c>
@@ -4923,7 +4925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>351</v>
       </c>
@@ -5002,7 +5004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>351</v>
       </c>
@@ -5081,7 +5083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>351</v>
       </c>
@@ -5160,7 +5162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>351</v>
       </c>
@@ -5239,7 +5241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>351</v>
       </c>
@@ -5318,7 +5320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>351</v>
       </c>
@@ -5397,7 +5399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>351</v>
       </c>
@@ -5476,7 +5478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>351</v>
       </c>
@@ -5555,7 +5557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>351</v>
       </c>
@@ -5634,7 +5636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>351</v>
       </c>
@@ -5713,7 +5715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>351</v>
       </c>
@@ -5792,7 +5794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>351</v>
       </c>
@@ -5871,7 +5873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>351</v>
       </c>
@@ -5950,7 +5952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>351</v>
       </c>
@@ -6029,7 +6031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>351</v>
       </c>
@@ -6108,7 +6110,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>351</v>
       </c>
@@ -6187,7 +6189,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>351</v>
       </c>
@@ -6266,7 +6268,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>351</v>
       </c>
@@ -6345,7 +6347,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>351</v>
       </c>
@@ -6424,7 +6426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>351</v>
       </c>
@@ -6503,7 +6505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>351</v>
       </c>
@@ -6582,7 +6584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>351</v>
       </c>
@@ -6661,7 +6663,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>351</v>
       </c>
@@ -6740,7 +6742,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>351</v>
       </c>
@@ -6819,7 +6821,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>351</v>
       </c>
@@ -6898,7 +6900,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>351</v>
       </c>
@@ -6977,7 +6979,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>351</v>
       </c>
@@ -7056,7 +7058,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>351</v>
       </c>
@@ -7135,7 +7137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>351</v>
       </c>
@@ -7214,7 +7216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>351</v>
       </c>
@@ -7293,7 +7295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>351</v>
       </c>
@@ -7372,7 +7374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>351</v>
       </c>
@@ -7451,7 +7453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>351</v>
       </c>
@@ -7530,7 +7532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>351</v>
       </c>
@@ -7609,7 +7611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>351</v>
       </c>
@@ -7688,7 +7690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>351</v>
       </c>
@@ -7767,7 +7769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>351</v>
       </c>
@@ -7846,7 +7848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>351</v>
       </c>
@@ -7925,7 +7927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>351</v>
       </c>
@@ -8004,7 +8006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>351</v>
       </c>
@@ -8083,7 +8085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>351</v>
       </c>
@@ -8162,7 +8164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>351</v>
       </c>
@@ -8241,7 +8243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>351</v>
       </c>
@@ -8320,7 +8322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>351</v>
       </c>
@@ -8399,7 +8401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>351</v>
       </c>
@@ -8478,7 +8480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>351</v>
       </c>
@@ -8557,7 +8559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>351</v>
       </c>
@@ -8636,7 +8638,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>351</v>
       </c>
@@ -8715,7 +8717,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>351</v>
       </c>
@@ -8794,7 +8796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>351</v>
       </c>
@@ -8873,7 +8875,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>351</v>
       </c>
@@ -8952,7 +8954,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>351</v>
       </c>
@@ -9031,7 +9033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>351</v>
       </c>
@@ -9110,7 +9112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>351</v>
       </c>
@@ -9189,7 +9191,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>351</v>
       </c>
@@ -9268,7 +9270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>351</v>
       </c>
@@ -9347,7 +9349,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>351</v>
       </c>
@@ -9426,7 +9428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>351</v>
       </c>
@@ -9505,7 +9507,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>351</v>
       </c>
@@ -9584,7 +9586,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>351</v>
       </c>
@@ -9663,7 +9665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>351</v>
       </c>
@@ -9742,7 +9744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>351</v>
       </c>
@@ -9821,7 +9823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>351</v>
       </c>
@@ -9900,7 +9902,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>351</v>
       </c>
@@ -9979,7 +9981,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>351</v>
       </c>
@@ -10058,7 +10060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>351</v>
       </c>
@@ -10137,7 +10139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>351</v>
       </c>
@@ -10216,7 +10218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>351</v>
       </c>
@@ -10295,7 +10297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>351</v>
       </c>
@@ -10374,7 +10376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>351</v>
       </c>
@@ -10453,7 +10455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>351</v>
       </c>
@@ -10532,7 +10534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>351</v>
       </c>
@@ -10611,7 +10613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>351</v>
       </c>
@@ -10690,7 +10692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>351</v>
       </c>
@@ -10769,7 +10771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>351</v>
       </c>
@@ -10848,7 +10850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>351</v>
       </c>
@@ -10927,7 +10929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>351</v>
       </c>
@@ -11006,7 +11008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>351</v>
       </c>
@@ -11085,7 +11087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>351</v>
       </c>
@@ -11164,7 +11166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>351</v>
       </c>
@@ -11243,7 +11245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>351</v>
       </c>
@@ -11322,7 +11324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>351</v>
       </c>
@@ -11401,7 +11403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>351</v>
       </c>
@@ -11480,7 +11482,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>351</v>
       </c>
@@ -11559,7 +11561,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>351</v>
       </c>
@@ -11638,7 +11640,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>351</v>
       </c>
@@ -11717,7 +11719,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>351</v>
       </c>
@@ -11796,7 +11798,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>351</v>
       </c>
@@ -11875,7 +11877,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>351</v>
       </c>
@@ -11954,7 +11956,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>351</v>
       </c>
@@ -12033,7 +12035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>351</v>
       </c>
@@ -12112,7 +12114,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>351</v>
       </c>
@@ -12191,7 +12193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>351</v>
       </c>
@@ -12270,7 +12272,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>351</v>
       </c>
@@ -12349,7 +12351,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>351</v>
       </c>
@@ -12428,7 +12430,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>351</v>
       </c>
@@ -12507,7 +12509,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>351</v>
       </c>
@@ -12586,7 +12588,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>351</v>
       </c>
@@ -12665,7 +12667,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>351</v>
       </c>
@@ -12744,7 +12746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>351</v>
       </c>
@@ -12823,7 +12825,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>351</v>
       </c>
@@ -12902,7 +12904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>351</v>
       </c>
@@ -12981,7 +12983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>351</v>
       </c>
@@ -13060,7 +13062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>351</v>
       </c>
@@ -13139,7 +13141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>351</v>
       </c>
@@ -13218,7 +13220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>351</v>
       </c>
@@ -13297,7 +13299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>351</v>
       </c>
@@ -13376,7 +13378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>351</v>
       </c>
@@ -13455,7 +13457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>351</v>
       </c>
@@ -13534,7 +13536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>351</v>
       </c>
@@ -13613,7 +13615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>351</v>
       </c>
@@ -13692,7 +13694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>351</v>
       </c>
@@ -13771,7 +13773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>351</v>
       </c>
@@ -13850,7 +13852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>351</v>
       </c>
@@ -13929,7 +13931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>351</v>
       </c>
@@ -14008,7 +14010,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="161" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>351</v>
       </c>
@@ -14087,7 +14089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>351</v>
       </c>
@@ -14166,7 +14168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>351</v>
       </c>
@@ -14245,7 +14247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>351</v>
       </c>
@@ -14324,7 +14326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>351</v>
       </c>
@@ -14403,7 +14405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>351</v>
       </c>
@@ -14482,7 +14484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>351</v>
       </c>
@@ -14561,7 +14563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>351</v>
       </c>
@@ -14640,7 +14642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>351</v>
       </c>
@@ -14719,7 +14721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>351</v>
       </c>
@@ -14798,7 +14800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>351</v>
       </c>
@@ -14877,7 +14879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>351</v>
       </c>
@@ -14956,7 +14958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>351</v>
       </c>
@@ -15035,7 +15037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>351</v>
       </c>
@@ -15114,7 +15116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>351</v>
       </c>
@@ -15193,7 +15195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>351</v>
       </c>
@@ -15272,7 +15274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>351</v>
       </c>
@@ -15351,7 +15353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>351</v>
       </c>
@@ -15430,7 +15432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>351</v>
       </c>
@@ -15509,7 +15511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>351</v>
       </c>
@@ -15588,7 +15590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>351</v>
       </c>
@@ -15667,7 +15669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>351</v>
       </c>
@@ -15746,7 +15748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>351</v>
       </c>
@@ -15825,7 +15827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>351</v>
       </c>
@@ -15904,7 +15906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>351</v>
       </c>
@@ -15983,7 +15985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>351</v>
       </c>
@@ -16062,7 +16064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>351</v>
       </c>
@@ -16141,7 +16143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>351</v>
       </c>
@@ -16220,7 +16222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>351</v>
       </c>
@@ -16299,7 +16301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>351</v>
       </c>
@@ -16378,7 +16380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>351</v>
       </c>
@@ -16457,7 +16459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>351</v>
       </c>
@@ -16536,7 +16538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>351</v>
       </c>
@@ -16615,7 +16617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>351</v>
       </c>
@@ -16694,7 +16696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>351</v>
       </c>
@@ -16773,7 +16775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>351</v>
       </c>
@@ -16852,7 +16854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>351</v>
       </c>
@@ -16931,7 +16933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>231</v>
       </c>
@@ -17010,7 +17012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>231</v>
       </c>
@@ -17089,7 +17091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>231</v>
       </c>
@@ -17168,7 +17170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>231</v>
       </c>
@@ -17247,7 +17249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>231</v>
       </c>
@@ -17326,7 +17328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>231</v>
       </c>
@@ -17405,7 +17407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>231</v>
       </c>
@@ -17484,7 +17486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>231</v>
       </c>
@@ -17563,7 +17565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>231</v>
       </c>
@@ -17642,7 +17644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>231</v>
       </c>
@@ -17721,7 +17723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>231</v>
       </c>
@@ -17800,7 +17802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>231</v>
       </c>
@@ -18353,7 +18355,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="216" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>194</v>
       </c>
@@ -18432,7 +18434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>101</v>
       </c>
@@ -18511,7 +18513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>101</v>
       </c>
@@ -18590,7 +18592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>101</v>
       </c>
@@ -18669,7 +18671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>101</v>
       </c>
@@ -18748,7 +18750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>101</v>
       </c>
@@ -18827,7 +18829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>101</v>
       </c>
@@ -18906,7 +18908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="223" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>101</v>
       </c>
@@ -18985,7 +18987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>101</v>
       </c>
@@ -19064,7 +19066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>101</v>
       </c>
@@ -19143,7 +19145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>101</v>
       </c>
@@ -19222,7 +19224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>101</v>
       </c>
@@ -20170,7 +20172,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="239" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>351</v>
       </c>
@@ -20249,7 +20251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>351</v>
       </c>
@@ -20328,7 +20330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>351</v>
       </c>
@@ -20407,7 +20409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>351</v>
       </c>
@@ -20486,7 +20488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>351</v>
       </c>
@@ -20565,7 +20567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>351</v>
       </c>
@@ -20644,7 +20646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>351</v>
       </c>
@@ -20723,7 +20725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>351</v>
       </c>
@@ -20802,7 +20804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>351</v>
       </c>
@@ -20881,7 +20883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>351</v>
       </c>
@@ -20960,7 +20962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>351</v>
       </c>
@@ -21039,7 +21041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>351</v>
       </c>
@@ -21118,7 +21120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>351</v>
       </c>
@@ -21197,7 +21199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>351</v>
       </c>
@@ -21276,7 +21278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>351</v>
       </c>
@@ -21355,7 +21357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>351</v>
       </c>
@@ -21434,7 +21436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>351</v>
       </c>
@@ -21513,7 +21515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>351</v>
       </c>
@@ -21592,7 +21594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>351</v>
       </c>
@@ -21671,7 +21673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>351</v>
       </c>
@@ -21750,7 +21752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>351</v>
       </c>
@@ -21829,7 +21831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>351</v>
       </c>
@@ -21908,7 +21910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>351</v>
       </c>
@@ -21987,7 +21989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>351</v>
       </c>
@@ -22066,7 +22068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>351</v>
       </c>
@@ -22145,7 +22147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>231</v>
       </c>
@@ -22224,7 +22226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>231</v>
       </c>
@@ -22303,7 +22305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>231</v>
       </c>
@@ -22382,7 +22384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>231</v>
       </c>
@@ -22461,7 +22463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>231</v>
       </c>
@@ -22540,7 +22542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>231</v>
       </c>
@@ -22619,7 +22621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>231</v>
       </c>
@@ -22698,7 +22700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>231</v>
       </c>
@@ -22777,7 +22779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>231</v>
       </c>
@@ -22856,7 +22858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>231</v>
       </c>
@@ -22935,7 +22937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>231</v>
       </c>
@@ -23014,7 +23016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>231</v>
       </c>
@@ -23093,7 +23095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>231</v>
       </c>
@@ -23172,7 +23174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>231</v>
       </c>
@@ -23251,7 +23253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>231</v>
       </c>
@@ -23330,7 +23332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>231</v>
       </c>
@@ -23409,7 +23411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>231</v>
       </c>
@@ -23488,7 +23490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>231</v>
       </c>
@@ -23567,7 +23569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>231</v>
       </c>
@@ -23646,7 +23648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>231</v>
       </c>
@@ -23725,7 +23727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>231</v>
       </c>
@@ -23804,7 +23806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="285" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>231</v>
       </c>
@@ -23883,7 +23885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>231</v>
       </c>
@@ -23962,7 +23964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>231</v>
       </c>
@@ -24041,7 +24043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>231</v>
       </c>
@@ -24120,7 +24122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="289" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>231</v>
       </c>
@@ -24199,7 +24201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>231</v>
       </c>
@@ -24278,7 +24280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>231</v>
       </c>
@@ -24357,7 +24359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>231</v>
       </c>
@@ -24436,7 +24438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>231</v>
       </c>
@@ -24515,7 +24517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>231</v>
       </c>
@@ -24594,7 +24596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>231</v>
       </c>
@@ -24673,7 +24675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>231</v>
       </c>
@@ -24752,7 +24754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>231</v>
       </c>
@@ -24831,7 +24833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>231</v>
       </c>
@@ -24910,7 +24912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>231</v>
       </c>
@@ -24989,7 +24991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>231</v>
       </c>
@@ -25068,7 +25070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>231</v>
       </c>
@@ -25147,7 +25149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>231</v>
       </c>
@@ -25226,7 +25228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>231</v>
       </c>
@@ -25305,7 +25307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>231</v>
       </c>
@@ -25384,7 +25386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>231</v>
       </c>
@@ -25463,7 +25465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="306" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>231</v>
       </c>
@@ -25542,7 +25544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="307" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>231</v>
       </c>
@@ -25621,7 +25623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="308" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>231</v>
       </c>
@@ -25700,7 +25702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>231</v>
       </c>
@@ -25779,7 +25781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="310" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>231</v>
       </c>
@@ -25858,7 +25860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="311" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>231</v>
       </c>
@@ -25937,7 +25939,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="312" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>231</v>
       </c>
@@ -26016,7 +26018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="313" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>231</v>
       </c>
@@ -26095,7 +26097,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="314" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>231</v>
       </c>
@@ -26174,7 +26176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="315" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>231</v>
       </c>
@@ -26253,7 +26255,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="316" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>231</v>
       </c>
@@ -26332,7 +26334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="317" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>231</v>
       </c>
@@ -26411,7 +26413,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="318" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>231</v>
       </c>
@@ -26490,7 +26492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="319" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>231</v>
       </c>
@@ -26569,7 +26571,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="320" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>231</v>
       </c>
@@ -26648,7 +26650,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="321" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>231</v>
       </c>
@@ -26727,7 +26729,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="322" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>231</v>
       </c>
@@ -26806,7 +26808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="323" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>231</v>
       </c>
@@ -26885,7 +26887,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="324" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>231</v>
       </c>
@@ -26964,7 +26966,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="325" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>231</v>
       </c>
@@ -27043,7 +27045,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="326" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>231</v>
       </c>
@@ -27122,7 +27124,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="327" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>231</v>
       </c>
@@ -27201,7 +27203,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="328" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>231</v>
       </c>
@@ -27280,7 +27282,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="329" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>231</v>
       </c>
@@ -27359,7 +27361,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="330" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>231</v>
       </c>
@@ -27438,7 +27440,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="331" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>231</v>
       </c>
@@ -27517,7 +27519,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="332" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>231</v>
       </c>
@@ -27596,7 +27598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="333" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>231</v>
       </c>
@@ -27675,7 +27677,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="334" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>231</v>
       </c>
@@ -27754,7 +27756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="335" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>231</v>
       </c>
@@ -27833,7 +27835,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="336" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>231</v>
       </c>
@@ -27912,7 +27914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="337" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>231</v>
       </c>
@@ -27991,7 +27993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="338" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>231</v>
       </c>
@@ -28070,7 +28072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="339" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>231</v>
       </c>
@@ -28149,7 +28151,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="340" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>231</v>
       </c>
@@ -28228,7 +28230,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="341" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>231</v>
       </c>
@@ -28307,7 +28309,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="342" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>231</v>
       </c>
@@ -28386,7 +28388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="343" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>231</v>
       </c>
@@ -28465,7 +28467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="344" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>231</v>
       </c>
@@ -28544,7 +28546,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="345" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>231</v>
       </c>
@@ -28623,7 +28625,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="346" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>351</v>
       </c>
@@ -28702,7 +28704,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="347" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>351</v>
       </c>
@@ -28781,7 +28783,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="348" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>351</v>
       </c>
@@ -28860,7 +28862,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="349" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>351</v>
       </c>
@@ -28939,7 +28941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="350" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>351</v>
       </c>
@@ -29018,7 +29020,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="351" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>351</v>
       </c>
@@ -29097,7 +29099,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="352" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>351</v>
       </c>
@@ -29176,7 +29178,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="353" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>351</v>
       </c>
@@ -29255,7 +29257,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="354" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>351</v>
       </c>
@@ -29334,7 +29336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="355" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>351</v>
       </c>
@@ -31519,7 +31521,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="437" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>9</v>
       </c>
@@ -31545,7 +31547,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="438" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>9</v>
       </c>
@@ -31571,7 +31573,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="439" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>9</v>
       </c>
@@ -31597,7 +31599,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="440" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>21</v>
       </c>
@@ -31623,7 +31625,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="441" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
         <v>21</v>
       </c>
@@ -31649,7 +31651,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="442" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>21</v>
       </c>
@@ -31675,7 +31677,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="443" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>33</v>
       </c>
@@ -31701,7 +31703,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="444" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>33</v>
       </c>
@@ -31727,7 +31729,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="445" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>33</v>
       </c>
@@ -31753,7 +31755,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="446" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>351</v>
       </c>
@@ -31779,7 +31781,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="447" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>351</v>
       </c>
@@ -31805,7 +31807,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="448" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
         <v>351</v>
       </c>
@@ -31831,7 +31833,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="449" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>283</v>
       </c>
@@ -31857,7 +31859,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="450" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>283</v>
       </c>
@@ -31883,7 +31885,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="451" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>283</v>
       </c>
@@ -31909,7 +31911,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="452" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>283</v>
       </c>
@@ -31935,7 +31937,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="453" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>283</v>
       </c>
@@ -31961,7 +31963,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="454" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>283</v>
       </c>
@@ -31987,7 +31989,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="455" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>283</v>
       </c>
@@ -32013,7 +32015,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="456" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>283</v>
       </c>
@@ -32039,7 +32041,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="457" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>283</v>
       </c>
@@ -32065,7 +32067,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="458" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>283</v>
       </c>
@@ -32091,7 +32093,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="459" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>100</v>
       </c>
@@ -32117,7 +32119,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="460" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>100</v>
       </c>
@@ -32143,7 +32145,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="461" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>100</v>
       </c>
@@ -32169,7 +32171,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="462" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>110</v>
       </c>
@@ -32195,7 +32197,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="463" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>110</v>
       </c>
@@ -32221,7 +32223,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="464" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>110</v>
       </c>
@@ -32247,7 +32249,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="465" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
         <v>117</v>
       </c>
@@ -32273,7 +32275,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="466" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>117</v>
       </c>
@@ -32299,7 +32301,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="467" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
         <v>117</v>
       </c>
@@ -32325,7 +32327,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="468" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>283</v>
       </c>
@@ -32351,7 +32353,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="469" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>283</v>
       </c>
@@ -32377,7 +32379,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="470" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>283</v>
       </c>
@@ -32403,7 +32405,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="471" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>283</v>
       </c>
@@ -32426,7 +32428,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="472" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>9</v>
       </c>
@@ -32449,7 +32451,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="473" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
         <v>10</v>
       </c>
@@ -32472,7 +32474,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="474" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>16</v>
       </c>
@@ -32495,7 +32497,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="475" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
         <v>21</v>
       </c>
@@ -32518,7 +32520,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="476" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
         <v>33</v>
       </c>
@@ -32541,7 +32543,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="477" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
         <v>351</v>
       </c>
@@ -32564,7 +32566,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="478" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
         <v>351</v>
       </c>
@@ -32590,7 +32592,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="479" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
         <v>59</v>
       </c>
@@ -32613,7 +32615,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="480" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>283</v>
       </c>
@@ -32636,7 +32638,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="481" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
         <v>100</v>
       </c>
@@ -32659,7 +32661,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="482" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
         <v>101</v>
       </c>
@@ -32682,7 +32684,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="483" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A483" s="3">
         <v>102</v>
       </c>
@@ -32705,7 +32707,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="484" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A484" s="3">
         <v>103</v>
       </c>
@@ -32728,7 +32730,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="485" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>283</v>
       </c>
@@ -32751,7 +32753,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="486" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
         <v>110</v>
       </c>
@@ -32774,7 +32776,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="487" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A487" s="3">
         <v>131</v>
       </c>
@@ -32797,7 +32799,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="488" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
         <v>138</v>
       </c>
@@ -32820,7 +32822,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="489" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A489" s="3">
         <v>28</v>
       </c>
@@ -32843,7 +32845,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="490" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A490" s="3">
         <v>159</v>
       </c>
@@ -32866,7 +32868,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="491" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A491" s="3">
         <v>165</v>
       </c>
@@ -32889,7 +32891,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="492" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
         <v>171</v>
       </c>
@@ -32912,7 +32914,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="493" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
         <v>194</v>
       </c>
@@ -32935,7 +32937,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="494" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A494" s="3">
         <v>202</v>
       </c>
@@ -32958,7 +32960,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="495" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A495" s="3">
         <v>117</v>
       </c>
@@ -32981,7 +32983,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="496" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>283</v>
       </c>
@@ -33004,7 +33006,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="497" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A497" s="3">
         <v>216</v>
       </c>
@@ -33027,7 +33029,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="498" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A498" s="3">
         <v>223</v>
       </c>
@@ -33050,7 +33052,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="499" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A499" s="3">
         <v>231</v>
       </c>
@@ -33073,7 +33075,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="500" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A500" s="3">
         <v>234</v>
       </c>
@@ -33096,7 +33098,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="501" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A501" s="3">
         <v>237</v>
       </c>
@@ -33119,7 +33121,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="502" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A502" s="3">
         <v>9</v>
       </c>
@@ -33145,7 +33147,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="503" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A503" s="3">
         <v>10</v>
       </c>
@@ -33171,7 +33173,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="504" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A504" s="3">
         <v>21</v>
       </c>
@@ -33197,7 +33199,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="505" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A505" s="3">
         <v>351</v>
       </c>
@@ -33223,7 +33225,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="506" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A506" s="3">
         <v>44</v>
       </c>
@@ -33249,7 +33251,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="507" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B507" t="s">
         <v>257</v>
       </c>
@@ -33272,7 +33274,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="508" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B508" t="s">
         <v>226</v>
       </c>
@@ -33295,7 +33297,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="509" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B509" t="s">
         <v>227</v>
       </c>
@@ -33318,7 +33320,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="510" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B510" t="s">
         <v>258</v>
       </c>
@@ -33341,7 +33343,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="511" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B511" t="s">
         <v>230</v>
       </c>
@@ -33364,7 +33366,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="512" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B512" t="s">
         <v>139</v>
       </c>
@@ -33387,7 +33389,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="513" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B513" t="s">
         <v>246</v>
       </c>
@@ -33410,7 +33412,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="514" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B514" t="s">
         <v>232</v>
       </c>
@@ -33433,7 +33435,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="515" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B515" t="s">
         <v>234</v>
       </c>
@@ -33456,7 +33458,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="516" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B516" t="s">
         <v>235</v>
       </c>
@@ -33479,7 +33481,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="517" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B517" t="s">
         <v>259</v>
       </c>
@@ -33502,7 +33504,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="518" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B518" t="s">
         <v>237</v>
       </c>
@@ -33525,7 +33527,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="519" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B519" t="s">
         <v>260</v>
       </c>
@@ -33548,7 +33550,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="520" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B520" t="s">
         <v>251</v>
       </c>
@@ -33571,7 +33573,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="521" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B521" t="s">
         <v>238</v>
       </c>
@@ -33594,7 +33596,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="522" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B522" t="s">
         <v>241</v>
       </c>
@@ -33617,7 +33619,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="523" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B523" t="s">
         <v>261</v>
       </c>
@@ -33659,15 +33661,72 @@
       <c r="G524">
         <v>0.20699999999999999</v>
       </c>
+      <c r="H524" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="525" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>231</v>
+      </c>
+      <c r="B525" t="s">
+        <v>104</v>
+      </c>
+      <c r="C525" t="s">
+        <v>62</v>
+      </c>
+      <c r="F525" t="s">
+        <v>266</v>
+      </c>
+      <c r="G525">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="H525" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="526" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>231</v>
+      </c>
+      <c r="B526" t="s">
+        <v>104</v>
+      </c>
+      <c r="C526" t="s">
+        <v>62</v>
+      </c>
+      <c r="F526" t="s">
+        <v>262</v>
+      </c>
+      <c r="G526">
+        <v>-0.32900000000000001</v>
+      </c>
+      <c r="H526" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="527" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>231</v>
+      </c>
+      <c r="B527" t="s">
+        <v>104</v>
+      </c>
+      <c r="C527" t="s">
+        <v>23</v>
+      </c>
+      <c r="F527" t="s">
+        <v>266</v>
+      </c>
+      <c r="G527">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H527" t="s">
+        <v>305</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AC523">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Corn"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:AC526"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
